--- a/data/pca/factorExposure/factorExposure_2019-05-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1281286582948471</v>
+        <v>0.07903062660494205</v>
       </c>
       <c r="C2">
-        <v>-0.01276735540733098</v>
+        <v>-0.02547234698636574</v>
       </c>
       <c r="D2">
-        <v>-0.04332081164205865</v>
+        <v>-0.04462496171135134</v>
       </c>
       <c r="E2">
-        <v>0.09339749457970284</v>
+        <v>0.03128754809345817</v>
       </c>
       <c r="F2">
-        <v>0.1051571904677961</v>
+        <v>-0.1404668988241738</v>
       </c>
       <c r="G2">
-        <v>0.1025583627513496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.09952069124723463</v>
+      </c>
+      <c r="H2">
+        <v>-0.07675837590422767</v>
+      </c>
+      <c r="I2">
+        <v>0.02306024835888337</v>
+      </c>
+      <c r="J2">
+        <v>0.04195610343387955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2156709020531876</v>
+        <v>0.160198293166373</v>
       </c>
       <c r="C3">
-        <v>0.08831119115349548</v>
+        <v>-0.08726940922037904</v>
       </c>
       <c r="D3">
-        <v>0.01515499595132822</v>
+        <v>0.03616118697419537</v>
       </c>
       <c r="E3">
-        <v>0.3182977952785392</v>
+        <v>0.0174165056647159</v>
       </c>
       <c r="F3">
-        <v>0.0315498222619511</v>
+        <v>-0.3766184937297822</v>
       </c>
       <c r="G3">
-        <v>0.3593234202139289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.04238057367244796</v>
+      </c>
+      <c r="H3">
+        <v>-0.2920883172196517</v>
+      </c>
+      <c r="I3">
+        <v>0.1358625350715425</v>
+      </c>
+      <c r="J3">
+        <v>0.4261243761471906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09698073124968191</v>
+        <v>0.07383265117086241</v>
       </c>
       <c r="C4">
-        <v>0.0267694848622711</v>
+        <v>-0.03794805064821637</v>
       </c>
       <c r="D4">
-        <v>-0.01991690824674925</v>
+        <v>-0.0215504770036308</v>
       </c>
       <c r="E4">
-        <v>0.07483106834721537</v>
+        <v>-0.02902869233793541</v>
       </c>
       <c r="F4">
-        <v>0.05034783530102788</v>
+        <v>-0.09227727336108119</v>
       </c>
       <c r="G4">
-        <v>0.04110856034109717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03661237931193047</v>
+      </c>
+      <c r="H4">
+        <v>-0.03256291581348212</v>
+      </c>
+      <c r="I4">
+        <v>0.02355184450429807</v>
+      </c>
+      <c r="J4">
+        <v>0.0320015124766603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01759557614120818</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.004510100837051109</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.0004552456941457702</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.006537673677513029</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.00189915340069906</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01808372708765668</v>
+      </c>
+      <c r="H6">
+        <v>-0.00266259084293277</v>
+      </c>
+      <c r="I6">
+        <v>-0.008369414096846094</v>
+      </c>
+      <c r="J6">
+        <v>-0.004053198200350225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04173278478123167</v>
+        <v>0.03259608354123234</v>
       </c>
       <c r="C7">
-        <v>0.005283700787790374</v>
+        <v>-0.01643283197734627</v>
       </c>
       <c r="D7">
-        <v>-0.03177677527852619</v>
+        <v>-0.01712089927252474</v>
       </c>
       <c r="E7">
-        <v>0.07150524911835103</v>
+        <v>-0.01719577902593462</v>
       </c>
       <c r="F7">
-        <v>-0.03822403458485793</v>
+        <v>-0.05998994782973351</v>
       </c>
       <c r="G7">
-        <v>0.01882823085541317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.009631365930140494</v>
+      </c>
+      <c r="H7">
+        <v>-0.05581142713612141</v>
+      </c>
+      <c r="I7">
+        <v>-0.01356015703758523</v>
+      </c>
+      <c r="J7">
+        <v>0.001509141622476612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04149328407097887</v>
+        <v>0.03158818923181744</v>
       </c>
       <c r="C8">
-        <v>0.03924625908392308</v>
+        <v>-0.04017348097026432</v>
       </c>
       <c r="D8">
-        <v>-0.002354810436122673</v>
+        <v>-0.004473063148007082</v>
       </c>
       <c r="E8">
-        <v>0.07135967383392015</v>
+        <v>-0.02007012068837166</v>
       </c>
       <c r="F8">
-        <v>0.002440936875455983</v>
+        <v>-0.08326993107341614</v>
       </c>
       <c r="G8">
-        <v>0.05857273498198257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.004331749093076262</v>
+      </c>
+      <c r="H8">
+        <v>-0.0584391287060546</v>
+      </c>
+      <c r="I8">
+        <v>0.02301743113773708</v>
+      </c>
+      <c r="J8">
+        <v>0.02985662419660653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08624600346135528</v>
+        <v>0.06310010985376466</v>
       </c>
       <c r="C9">
-        <v>0.02899936009066492</v>
+        <v>-0.03701046571494575</v>
       </c>
       <c r="D9">
-        <v>-0.0300845862107594</v>
+        <v>-0.02198699188492049</v>
       </c>
       <c r="E9">
-        <v>0.06614478863784816</v>
+        <v>-0.03191184313065466</v>
       </c>
       <c r="F9">
-        <v>0.03188345228701799</v>
+        <v>-0.09215655247326701</v>
       </c>
       <c r="G9">
-        <v>0.04006785536354236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02895300521579752</v>
+      </c>
+      <c r="H9">
+        <v>-0.02732271216769898</v>
+      </c>
+      <c r="I9">
+        <v>0.002356303070088706</v>
+      </c>
+      <c r="J9">
+        <v>-0.002257378221683549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.008499577251304076</v>
+        <v>0.01489743583310555</v>
       </c>
       <c r="C10">
-        <v>-0.1603037021348657</v>
+        <v>0.157847461185996</v>
       </c>
       <c r="D10">
-        <v>0.01106206132057084</v>
+        <v>0.009823696639144619</v>
       </c>
       <c r="E10">
-        <v>0.05799564284758566</v>
+        <v>0.03275535383629695</v>
       </c>
       <c r="F10">
-        <v>0.01445949850571815</v>
+        <v>-0.06113514187622699</v>
       </c>
       <c r="G10">
-        <v>0.01267553125390319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02017784346441008</v>
+      </c>
+      <c r="H10">
+        <v>-0.004062627898385271</v>
+      </c>
+      <c r="I10">
+        <v>0.119987704557387</v>
+      </c>
+      <c r="J10">
+        <v>0.007119901116601744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05810338127838597</v>
+        <v>0.0491777954702412</v>
       </c>
       <c r="C11">
-        <v>0.005793952826666947</v>
+        <v>-0.02449237305576622</v>
       </c>
       <c r="D11">
-        <v>0.008825053026812135</v>
+        <v>-0.006805039790215664</v>
       </c>
       <c r="E11">
-        <v>0.04105541682791891</v>
+        <v>0.01175248357048827</v>
       </c>
       <c r="F11">
-        <v>0.006886320408472864</v>
+        <v>-0.04530738844660676</v>
       </c>
       <c r="G11">
-        <v>-0.0284404002758014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.00313886399563139</v>
+      </c>
+      <c r="H11">
+        <v>-0.01230408486008667</v>
+      </c>
+      <c r="I11">
+        <v>-0.02108324808324603</v>
+      </c>
+      <c r="J11">
+        <v>0.003965660238022828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04335424237437831</v>
+        <v>0.04422842871946121</v>
       </c>
       <c r="C12">
-        <v>0.0119617476455598</v>
+        <v>-0.0235909558042882</v>
       </c>
       <c r="D12">
-        <v>0.005427877196643329</v>
+        <v>-0.005753129967051887</v>
       </c>
       <c r="E12">
-        <v>0.03370172569785175</v>
+        <v>-0.002079203933692551</v>
       </c>
       <c r="F12">
-        <v>0.002238521761637399</v>
+        <v>-0.02518327902509188</v>
       </c>
       <c r="G12">
-        <v>-0.006712773188049307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.003698372318438093</v>
+      </c>
+      <c r="H12">
+        <v>-0.01023269060509297</v>
+      </c>
+      <c r="I12">
+        <v>-0.01923357352389729</v>
+      </c>
+      <c r="J12">
+        <v>-0.002676861816890709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06157595166579442</v>
+        <v>0.04255127855970794</v>
       </c>
       <c r="C13">
-        <v>0.01606313782525927</v>
+        <v>-0.02391372015046735</v>
       </c>
       <c r="D13">
-        <v>0.007694942908089958</v>
+        <v>-0.008727360400997721</v>
       </c>
       <c r="E13">
-        <v>0.1089862455091124</v>
+        <v>0.02051214379567333</v>
       </c>
       <c r="F13">
-        <v>0.02544316823855828</v>
+        <v>-0.104582805455277</v>
       </c>
       <c r="G13">
-        <v>0.0428886715229405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.01393735386511122</v>
+      </c>
+      <c r="H13">
+        <v>-0.05887103715144056</v>
+      </c>
+      <c r="I13">
+        <v>0.002212528608205182</v>
+      </c>
+      <c r="J13">
+        <v>0.03014119117798764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03773419619952639</v>
+        <v>0.02905312377571157</v>
       </c>
       <c r="C14">
-        <v>0.008347914871558488</v>
+        <v>-0.01674867148072048</v>
       </c>
       <c r="D14">
-        <v>-0.02046960553102315</v>
+        <v>-0.02155281338731583</v>
       </c>
       <c r="E14">
-        <v>0.01960570499298038</v>
+        <v>-0.009274957072179726</v>
       </c>
       <c r="F14">
-        <v>-0.0004422053283444484</v>
+        <v>-0.04049758604888692</v>
       </c>
       <c r="G14">
-        <v>0.0225284019245142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01974787206445204</v>
+      </c>
+      <c r="H14">
+        <v>-0.05639004587259341</v>
+      </c>
+      <c r="I14">
+        <v>0.01088653355123244</v>
+      </c>
+      <c r="J14">
+        <v>-0.01497158615718555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04802575674714429</v>
+        <v>0.04320322879004472</v>
       </c>
       <c r="C16">
-        <v>0.02182947842874586</v>
+        <v>-0.03255535548090546</v>
       </c>
       <c r="D16">
-        <v>0.01549126063623195</v>
+        <v>-0.001150374047543925</v>
       </c>
       <c r="E16">
-        <v>0.03889994890586051</v>
+        <v>0.007204507095254032</v>
       </c>
       <c r="F16">
-        <v>0.0006187944222155753</v>
+        <v>-0.03830097924666008</v>
       </c>
       <c r="G16">
-        <v>-0.01615227866965971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.007602819731164633</v>
+      </c>
+      <c r="H16">
+        <v>-0.01605484190824865</v>
+      </c>
+      <c r="I16">
+        <v>-0.01842284627025188</v>
+      </c>
+      <c r="J16">
+        <v>0.002748243530058388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05196066965818648</v>
+        <v>0.04532523934750324</v>
       </c>
       <c r="C19">
-        <v>0.02405746908543616</v>
+        <v>-0.03461034238606769</v>
       </c>
       <c r="D19">
-        <v>-0.0008533059631862058</v>
+        <v>-0.008524076396207007</v>
       </c>
       <c r="E19">
-        <v>0.07863050239347728</v>
+        <v>0.003576148990243673</v>
       </c>
       <c r="F19">
-        <v>-0.004158778771043416</v>
+        <v>-0.09080299758998786</v>
       </c>
       <c r="G19">
-        <v>0.07147255514432145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.004231612448046495</v>
+      </c>
+      <c r="H19">
+        <v>-0.08852787169117438</v>
+      </c>
+      <c r="I19">
+        <v>0.01954771749933187</v>
+      </c>
+      <c r="J19">
+        <v>0.02355804993922091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03680888225517456</v>
+        <v>0.01777885456573033</v>
       </c>
       <c r="C20">
-        <v>0.03475504298065102</v>
+        <v>-0.0333946819761439</v>
       </c>
       <c r="D20">
-        <v>-0.01375050474843037</v>
+        <v>-0.01285308820981029</v>
       </c>
       <c r="E20">
-        <v>0.06694739855175222</v>
+        <v>-0.01350676167719754</v>
       </c>
       <c r="F20">
-        <v>-0.009730838047902536</v>
+        <v>-0.07601670204959239</v>
       </c>
       <c r="G20">
-        <v>0.03448470549468736</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.001923625556769821</v>
+      </c>
+      <c r="H20">
+        <v>-0.07764126721989831</v>
+      </c>
+      <c r="I20">
+        <v>0.007798242172318916</v>
+      </c>
+      <c r="J20">
+        <v>0.04275102930060613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.0390910407955293</v>
+        <v>0.02098057598866444</v>
       </c>
       <c r="C21">
-        <v>0.01555822324385689</v>
+        <v>-0.02655828602259144</v>
       </c>
       <c r="D21">
-        <v>0.0007284184033200505</v>
+        <v>0.004404763672358545</v>
       </c>
       <c r="E21">
-        <v>0.08716917551708916</v>
+        <v>-0.008731722908553854</v>
       </c>
       <c r="F21">
-        <v>0.05117698513043187</v>
+        <v>-0.08268920133190057</v>
       </c>
       <c r="G21">
-        <v>0.02939531589272066</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02597148077339955</v>
+      </c>
+      <c r="H21">
+        <v>-0.03511566814108761</v>
+      </c>
+      <c r="I21">
+        <v>-0.01038020301134856</v>
+      </c>
+      <c r="J21">
+        <v>-0.02336232270215881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04850618990450499</v>
+        <v>0.04161766611173013</v>
       </c>
       <c r="C24">
-        <v>0.01468718891513368</v>
+        <v>-0.02159796666075576</v>
       </c>
       <c r="D24">
-        <v>0.003329577420783061</v>
+        <v>-0.00599062855389583</v>
       </c>
       <c r="E24">
-        <v>0.04844325257533934</v>
+        <v>0.004516834939046979</v>
       </c>
       <c r="F24">
-        <v>0.003037238178645671</v>
+        <v>-0.04572766044356315</v>
       </c>
       <c r="G24">
-        <v>-0.01215380644576253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.008635283145836926</v>
+      </c>
+      <c r="H24">
+        <v>-0.01522637150923208</v>
+      </c>
+      <c r="I24">
+        <v>-0.01877323573793696</v>
+      </c>
+      <c r="J24">
+        <v>0.01225255479844577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.04852045093325657</v>
+        <v>0.04300867367231107</v>
       </c>
       <c r="C25">
-        <v>0.004468724666730133</v>
+        <v>-0.02168305638334474</v>
       </c>
       <c r="D25">
-        <v>0.005304450336437792</v>
+        <v>-0.004293816203376607</v>
       </c>
       <c r="E25">
-        <v>0.04610482179565159</v>
+        <v>0.007459738533659301</v>
       </c>
       <c r="F25">
-        <v>0.01093132969649384</v>
+        <v>-0.04983267948028731</v>
       </c>
       <c r="G25">
-        <v>-0.01641177451382045</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.00166006656978162</v>
+      </c>
+      <c r="H25">
+        <v>-0.0092939245100214</v>
+      </c>
+      <c r="I25">
+        <v>-0.01933283378732988</v>
+      </c>
+      <c r="J25">
+        <v>0.003717121766748637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.007746012661758836</v>
+        <v>0.01301686823918036</v>
       </c>
       <c r="C26">
-        <v>0.0162579732421098</v>
+        <v>-0.01788030706591248</v>
       </c>
       <c r="D26">
-        <v>-0.004835816870692049</v>
+        <v>0.0003782965272059038</v>
       </c>
       <c r="E26">
-        <v>0.05026383231776856</v>
+        <v>0.01216060364571327</v>
       </c>
       <c r="F26">
-        <v>0.01980965575126879</v>
+        <v>-0.05357366221655414</v>
       </c>
       <c r="G26">
-        <v>0.0003570438399852993</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.01159469499963216</v>
+      </c>
+      <c r="H26">
+        <v>-0.03775888188769453</v>
+      </c>
+      <c r="I26">
+        <v>-0.01177450346591896</v>
+      </c>
+      <c r="J26">
+        <v>0.008351184957986936</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1097021384819618</v>
+        <v>0.0812531586009793</v>
       </c>
       <c r="C27">
-        <v>0.01683635917105981</v>
+        <v>-0.02521605498989744</v>
       </c>
       <c r="D27">
-        <v>-0.02200846958085579</v>
+        <v>-0.02742413921825992</v>
       </c>
       <c r="E27">
-        <v>0.11246640441522</v>
+        <v>-0.01409408796664059</v>
       </c>
       <c r="F27">
-        <v>0.02373489632775907</v>
+        <v>-0.08537418479630715</v>
       </c>
       <c r="G27">
-        <v>0.01444284332007676</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.005248488012533618</v>
+      </c>
+      <c r="H27">
+        <v>-0.01573208188717225</v>
+      </c>
+      <c r="I27">
+        <v>0.004955546430512874</v>
+      </c>
+      <c r="J27">
+        <v>0.01989560925193561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.007863509964632384</v>
+        <v>0.02870131697551287</v>
       </c>
       <c r="C28">
-        <v>-0.2460872712719624</v>
+        <v>0.2353980074198692</v>
       </c>
       <c r="D28">
-        <v>0.02078921954731479</v>
+        <v>0.0158794361742999</v>
       </c>
       <c r="E28">
-        <v>0.03222109993784965</v>
+        <v>0.02912621323617476</v>
       </c>
       <c r="F28">
-        <v>0.008996761113459394</v>
+        <v>-0.043764476130534</v>
       </c>
       <c r="G28">
-        <v>0.01921510552027778</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02216295104876286</v>
+      </c>
+      <c r="H28">
+        <v>0.005040074271728281</v>
+      </c>
+      <c r="I28">
+        <v>0.1662281301421568</v>
+      </c>
+      <c r="J28">
+        <v>0.02418805914978421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02218952284201371</v>
+        <v>0.02222593459341032</v>
       </c>
       <c r="C29">
-        <v>0.01519492217441154</v>
+        <v>-0.01891907867448343</v>
       </c>
       <c r="D29">
-        <v>-0.02243820520148748</v>
+        <v>-0.0194013106080807</v>
       </c>
       <c r="E29">
-        <v>0.02747414762869631</v>
+        <v>-0.01488457759204409</v>
       </c>
       <c r="F29">
-        <v>0.01018498099745826</v>
+        <v>-0.04145402931534642</v>
       </c>
       <c r="G29">
-        <v>0.01880916975555899</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.02082541800763928</v>
+      </c>
+      <c r="H29">
+        <v>-0.05187531112690962</v>
+      </c>
+      <c r="I29">
+        <v>0.002655161783865042</v>
+      </c>
+      <c r="J29">
+        <v>-0.03267276933414215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1063644770774027</v>
+        <v>0.09935362731549564</v>
       </c>
       <c r="C30">
-        <v>0.007843606726098252</v>
+        <v>-0.03706959121388064</v>
       </c>
       <c r="D30">
-        <v>-0.0200920750527956</v>
+        <v>-0.03490501374796412</v>
       </c>
       <c r="E30">
-        <v>0.1134281352468141</v>
+        <v>0.01227598876566087</v>
       </c>
       <c r="F30">
-        <v>0.02889476524784849</v>
+        <v>-0.109913929401551</v>
       </c>
       <c r="G30">
-        <v>-0.07835797934223179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01037519453708727</v>
+      </c>
+      <c r="H30">
+        <v>-0.009628181578846642</v>
+      </c>
+      <c r="I30">
+        <v>-0.02586796797947661</v>
+      </c>
+      <c r="J30">
+        <v>-0.009914058793154296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05804306007239625</v>
+        <v>0.06100364383884976</v>
       </c>
       <c r="C31">
-        <v>0.01390283808196728</v>
+        <v>-0.02198819203089854</v>
       </c>
       <c r="D31">
-        <v>-0.01532473183170792</v>
+        <v>-0.02035008055297527</v>
       </c>
       <c r="E31">
-        <v>-0.02081203680016014</v>
+        <v>0.008408888376642214</v>
       </c>
       <c r="F31">
-        <v>0.00718153568962984</v>
+        <v>-0.006536474852102945</v>
       </c>
       <c r="G31">
-        <v>-0.01186012589009016</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03783796908035064</v>
+      </c>
+      <c r="H31">
+        <v>-0.04044405170028402</v>
+      </c>
+      <c r="I31">
+        <v>0.01027976759675044</v>
+      </c>
+      <c r="J31">
+        <v>-0.02886754747662528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06989296290730382</v>
+        <v>0.04717569039259199</v>
       </c>
       <c r="C32">
-        <v>0.02576819007478972</v>
+        <v>-0.04651132501245548</v>
       </c>
       <c r="D32">
-        <v>-0.01418138720974541</v>
+        <v>-0.01992586903865269</v>
       </c>
       <c r="E32">
-        <v>0.1148351396145809</v>
+        <v>-0.01534043535692147</v>
       </c>
       <c r="F32">
-        <v>-0.0007683198193828383</v>
+        <v>-0.1012491394453933</v>
       </c>
       <c r="G32">
-        <v>0.02147331761267447</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.00122461376564562</v>
+      </c>
+      <c r="H32">
+        <v>-0.04929109185796356</v>
+      </c>
+      <c r="I32">
+        <v>0.01339202055191449</v>
+      </c>
+      <c r="J32">
+        <v>-0.02184261746039656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06803858238876868</v>
+        <v>0.05912506515770736</v>
       </c>
       <c r="C33">
-        <v>0.0317162041260959</v>
+        <v>-0.04709462084740829</v>
       </c>
       <c r="D33">
-        <v>-0.009701509400907504</v>
+        <v>-0.006456840399453701</v>
       </c>
       <c r="E33">
-        <v>0.0718128839903944</v>
+        <v>0.00813617725820466</v>
       </c>
       <c r="F33">
-        <v>0.04772066564657407</v>
+        <v>-0.08625093768471979</v>
       </c>
       <c r="G33">
-        <v>0.01295153851752272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02273994392489661</v>
+      </c>
+      <c r="H33">
+        <v>-0.04682906976788624</v>
+      </c>
+      <c r="I33">
+        <v>-0.02111179150835025</v>
+      </c>
+      <c r="J33">
+        <v>0.00276295248100281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04790160244877294</v>
+        <v>0.04296491522842338</v>
       </c>
       <c r="C34">
-        <v>0.01385962504730298</v>
+        <v>-0.02836665363594919</v>
       </c>
       <c r="D34">
-        <v>0.005342823849986175</v>
+        <v>-0.009837023181644611</v>
       </c>
       <c r="E34">
-        <v>0.02685591510336134</v>
+        <v>0.004594675382278777</v>
       </c>
       <c r="F34">
-        <v>-0.002418048528550866</v>
+        <v>-0.03833752206333905</v>
       </c>
       <c r="G34">
-        <v>-0.004613185037842499</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.00100796783392567</v>
+      </c>
+      <c r="H34">
+        <v>-0.02029258524617786</v>
+      </c>
+      <c r="I34">
+        <v>-0.01841331626152336</v>
+      </c>
+      <c r="J34">
+        <v>-0.00392645003407905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.0124793666565599</v>
+        <v>0.01459035943631121</v>
       </c>
       <c r="C36">
-        <v>-0.01004110272453217</v>
+        <v>-0.001555303646169154</v>
       </c>
       <c r="D36">
-        <v>-0.005798649310398031</v>
+        <v>-0.007085118925948737</v>
       </c>
       <c r="E36">
-        <v>0.02314735740112606</v>
+        <v>-0.003940815972139833</v>
       </c>
       <c r="F36">
-        <v>0.009055649671314631</v>
+        <v>-0.03127465126032873</v>
       </c>
       <c r="G36">
-        <v>0.003287529427057142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01728707787226858</v>
+      </c>
+      <c r="H36">
+        <v>-0.03268622000294921</v>
+      </c>
+      <c r="I36">
+        <v>-0.001642857085199525</v>
+      </c>
+      <c r="J36">
+        <v>-0.02782933205590309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05664539300882968</v>
+        <v>0.03288142175290673</v>
       </c>
       <c r="C38">
-        <v>0.004881172114072048</v>
+        <v>-0.01015559137560925</v>
       </c>
       <c r="D38">
-        <v>-0.02447558269661757</v>
+        <v>-0.007242916982279191</v>
       </c>
       <c r="E38">
-        <v>0.03284589842436322</v>
+        <v>-0.00510983044367873</v>
       </c>
       <c r="F38">
-        <v>0.0126334506221553</v>
+        <v>-0.05479042559996671</v>
       </c>
       <c r="G38">
-        <v>0.04840615653517279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02541388023645451</v>
+      </c>
+      <c r="H38">
+        <v>-0.01650412582030603</v>
+      </c>
+      <c r="I38">
+        <v>-0.008121174309812428</v>
+      </c>
+      <c r="J38">
+        <v>-0.03122718261155438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07514706530640876</v>
+        <v>0.05857449314145299</v>
       </c>
       <c r="C39">
-        <v>0.01218147563370085</v>
+        <v>-0.03734612770749998</v>
       </c>
       <c r="D39">
-        <v>-0.001195524473516173</v>
+        <v>-0.01688196679624389</v>
       </c>
       <c r="E39">
-        <v>0.04536393962472181</v>
+        <v>0.0108714454132041</v>
       </c>
       <c r="F39">
-        <v>0.02421223145895669</v>
+        <v>-0.06046565881867477</v>
       </c>
       <c r="G39">
-        <v>-0.02358417341847779</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01208726591515026</v>
+      </c>
+      <c r="H39">
+        <v>-0.01204286139989492</v>
+      </c>
+      <c r="I39">
+        <v>-0.03561335217013121</v>
+      </c>
+      <c r="J39">
+        <v>-0.003169441661914623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07040396622854302</v>
+        <v>0.05731896490792154</v>
       </c>
       <c r="C40">
-        <v>0.02718331333681429</v>
+        <v>-0.03638786759171337</v>
       </c>
       <c r="D40">
-        <v>-0.003646638097311188</v>
+        <v>-0.02501139415632987</v>
       </c>
       <c r="E40">
-        <v>0.1054074946184432</v>
+        <v>0.02684091114312697</v>
       </c>
       <c r="F40">
-        <v>0.04360088521488362</v>
+        <v>-0.1068188377199045</v>
       </c>
       <c r="G40">
-        <v>0.09827630284188571</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.01256900163870298</v>
+      </c>
+      <c r="H40">
+        <v>-0.0787985765278954</v>
+      </c>
+      <c r="I40">
+        <v>-0.006034585953374844</v>
+      </c>
+      <c r="J40">
+        <v>0.05344470569357993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.004109364483850675</v>
+        <v>0.002254622091739853</v>
       </c>
       <c r="C41">
-        <v>0.01324077996109813</v>
+        <v>-0.01199759004490049</v>
       </c>
       <c r="D41">
-        <v>-0.01728481606487194</v>
+        <v>-0.005219818398967245</v>
       </c>
       <c r="E41">
-        <v>0.008856011951384425</v>
+        <v>-0.002813208529971188</v>
       </c>
       <c r="F41">
-        <v>0.02392593028383913</v>
+        <v>-0.01782205796644423</v>
       </c>
       <c r="G41">
-        <v>0.01820804488518971</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03040418230742947</v>
+      </c>
+      <c r="H41">
+        <v>-0.03909552596508808</v>
+      </c>
+      <c r="I41">
+        <v>0.01917788884056294</v>
+      </c>
+      <c r="J41">
+        <v>-0.01189346304279713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1288962973435262</v>
+        <v>0.2317056994405127</v>
       </c>
       <c r="C42">
-        <v>0.1894688486675018</v>
+        <v>-0.1447610330620556</v>
       </c>
       <c r="D42">
-        <v>0.9354200619906734</v>
+        <v>0.8874824260727521</v>
       </c>
       <c r="E42">
-        <v>-0.00857012396998336</v>
+        <v>0.2733136297209176</v>
       </c>
       <c r="F42">
-        <v>-0.01809333520958826</v>
+        <v>0.1757353083578671</v>
       </c>
       <c r="G42">
-        <v>-0.09776285780490075</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.001271211770124414</v>
+      </c>
+      <c r="H42">
+        <v>-0.004766585476422718</v>
+      </c>
+      <c r="I42">
+        <v>0.04427879870595327</v>
+      </c>
+      <c r="J42">
+        <v>-0.003157265206874134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.007807458770752775</v>
+        <v>0.005183039709009365</v>
       </c>
       <c r="C43">
-        <v>0.01436560995138158</v>
+        <v>-0.01447657224682233</v>
       </c>
       <c r="D43">
-        <v>-0.01699310321043478</v>
+        <v>-0.006071692908338677</v>
       </c>
       <c r="E43">
-        <v>0.03065898136435748</v>
+        <v>-0.001631282071486597</v>
       </c>
       <c r="F43">
-        <v>0.001131227890961674</v>
+        <v>-0.03178857673000127</v>
       </c>
       <c r="G43">
-        <v>0.008408257002108824</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01316151508905259</v>
+      </c>
+      <c r="H43">
+        <v>-0.03837013488094537</v>
+      </c>
+      <c r="I43">
+        <v>0.009229406281121887</v>
+      </c>
+      <c r="J43">
+        <v>-0.005208326357658033</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04328362017029302</v>
+        <v>0.03065283475346931</v>
       </c>
       <c r="C44">
-        <v>0.035240665604941</v>
+        <v>-0.03589698357147519</v>
       </c>
       <c r="D44">
-        <v>-0.01160716107848738</v>
+        <v>-0.002920155576598516</v>
       </c>
       <c r="E44">
-        <v>0.102157192929904</v>
+        <v>0.005858336495769018</v>
       </c>
       <c r="F44">
-        <v>0.08485268353827724</v>
+        <v>-0.1208362822904293</v>
       </c>
       <c r="G44">
-        <v>0.09320511106819876</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04979824025387516</v>
+      </c>
+      <c r="H44">
+        <v>-0.1082019509958643</v>
+      </c>
+      <c r="I44">
+        <v>0.02417455182753559</v>
+      </c>
+      <c r="J44">
+        <v>0.008303450926227682</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02476087657670072</v>
+        <v>0.02367589962446447</v>
       </c>
       <c r="C46">
-        <v>0.01328919208383737</v>
+        <v>-0.02707520602042574</v>
       </c>
       <c r="D46">
-        <v>-0.02228832678273649</v>
+        <v>-0.01886806198714239</v>
       </c>
       <c r="E46">
-        <v>0.02001110238697509</v>
+        <v>-0.002577150780570039</v>
       </c>
       <c r="F46">
-        <v>0.02069120680425946</v>
+        <v>-0.04905285924672504</v>
       </c>
       <c r="G46">
-        <v>0.02147913703545761</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.0204221913029363</v>
+      </c>
+      <c r="H46">
+        <v>-0.06081109787731657</v>
+      </c>
+      <c r="I46">
+        <v>0.008916118991472644</v>
+      </c>
+      <c r="J46">
+        <v>-0.01237430062734772</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08228683197646824</v>
+        <v>0.09055096429126838</v>
       </c>
       <c r="C47">
-        <v>0.009190606010478971</v>
+        <v>-0.02022344786204784</v>
       </c>
       <c r="D47">
-        <v>-0.01786666355464235</v>
+        <v>-0.02431499980444792</v>
       </c>
       <c r="E47">
-        <v>-0.02518234479633316</v>
+        <v>-0.003707259944890013</v>
       </c>
       <c r="F47">
-        <v>0.0007832523734727319</v>
+        <v>0.002651885629953492</v>
       </c>
       <c r="G47">
-        <v>0.009644791065352699</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03549941460103401</v>
+      </c>
+      <c r="H47">
+        <v>-0.06140378983067558</v>
+      </c>
+      <c r="I47">
+        <v>0.01238879381225607</v>
+      </c>
+      <c r="J47">
+        <v>-0.01691905884293364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01510151991357669</v>
+        <v>0.01714462809230993</v>
       </c>
       <c r="C48">
-        <v>0.01634271918828248</v>
+        <v>-0.019455068107059</v>
       </c>
       <c r="D48">
-        <v>-0.01594271541067245</v>
+        <v>-0.008042897422734618</v>
       </c>
       <c r="E48">
-        <v>0.03334884675295226</v>
+        <v>-0.007654203700678723</v>
       </c>
       <c r="F48">
-        <v>0.01602386828621452</v>
+        <v>-0.03679855114941113</v>
       </c>
       <c r="G48">
-        <v>0.008278492369225057</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.009631663072067195</v>
+      </c>
+      <c r="H48">
+        <v>-0.02536035791943669</v>
+      </c>
+      <c r="I48">
+        <v>0.008862499602618767</v>
+      </c>
+      <c r="J48">
+        <v>-0.009696352280818259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.08335156071793053</v>
+        <v>0.08608518385927186</v>
       </c>
       <c r="C50">
-        <v>0.02755551434240428</v>
+        <v>-0.03422291238023458</v>
       </c>
       <c r="D50">
-        <v>-0.0268779880777143</v>
+        <v>-0.01751213332027818</v>
       </c>
       <c r="E50">
-        <v>-0.02204495913231573</v>
+        <v>-0.009213258740776411</v>
       </c>
       <c r="F50">
-        <v>0.0003740528020077478</v>
+        <v>-0.003729525312287792</v>
       </c>
       <c r="G50">
-        <v>-0.008261882801974735</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.005105341815125605</v>
+      </c>
+      <c r="H50">
+        <v>-0.04909496724627614</v>
+      </c>
+      <c r="I50">
+        <v>-0.010265465602048</v>
+      </c>
+      <c r="J50">
+        <v>-0.05758808709166931</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06899683896017622</v>
+        <v>0.04697014991278103</v>
       </c>
       <c r="C51">
-        <v>-0.02257498409715408</v>
+        <v>0.002783798984975952</v>
       </c>
       <c r="D51">
-        <v>0.003421465097745305</v>
+        <v>-0.01333434474976193</v>
       </c>
       <c r="E51">
-        <v>0.07140003043949629</v>
+        <v>0.0288389075662725</v>
       </c>
       <c r="F51">
-        <v>0.05588498726594009</v>
+        <v>-0.09249173671015226</v>
       </c>
       <c r="G51">
-        <v>-0.01300414125601327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05059314072040798</v>
+      </c>
+      <c r="H51">
+        <v>-0.0650367951850058</v>
+      </c>
+      <c r="I51">
+        <v>0.02214548987949919</v>
+      </c>
+      <c r="J51">
+        <v>-0.02112303049206889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1462693790642548</v>
+        <v>0.1275977347374876</v>
       </c>
       <c r="C53">
-        <v>0.01129101104146754</v>
+        <v>-0.03615168222167983</v>
       </c>
       <c r="D53">
-        <v>-0.03963815509970603</v>
+        <v>-0.04532056276890204</v>
       </c>
       <c r="E53">
-        <v>-0.04067205742806945</v>
+        <v>-0.01329980235097646</v>
       </c>
       <c r="F53">
-        <v>-0.01799425163996024</v>
+        <v>0.03239427698048106</v>
       </c>
       <c r="G53">
-        <v>-0.01591842757018845</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.01930983591048488</v>
+      </c>
+      <c r="H53">
+        <v>-0.005431605371288512</v>
+      </c>
+      <c r="I53">
+        <v>0.03317353520158633</v>
+      </c>
+      <c r="J53">
+        <v>0.0238833710476714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02665585017787655</v>
+        <v>0.02249961683191602</v>
       </c>
       <c r="C54">
-        <v>-0.004164572058250837</v>
+        <v>-0.008212869042810817</v>
       </c>
       <c r="D54">
-        <v>-0.02865096550633135</v>
+        <v>-0.02300294903054516</v>
       </c>
       <c r="E54">
-        <v>0.02899503340914867</v>
+        <v>-0.0152895015993339</v>
       </c>
       <c r="F54">
-        <v>0.04314801421393877</v>
+        <v>-0.04548516425217433</v>
       </c>
       <c r="G54">
-        <v>0.03378857342995053</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03937777453515007</v>
+      </c>
+      <c r="H54">
+        <v>-0.05132631611444805</v>
+      </c>
+      <c r="I54">
+        <v>0.03243697376954548</v>
+      </c>
+      <c r="J54">
+        <v>-0.03638820856865668</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09809395120489668</v>
+        <v>0.1020445412941077</v>
       </c>
       <c r="C55">
-        <v>-0.002665584896015307</v>
+        <v>-0.01975599981552434</v>
       </c>
       <c r="D55">
-        <v>-0.03722043489134216</v>
+        <v>-0.02673162816206344</v>
       </c>
       <c r="E55">
-        <v>-0.005243348773142043</v>
+        <v>-0.0368745794059006</v>
       </c>
       <c r="F55">
-        <v>-0.03267971728114923</v>
+        <v>0.01843365606103273</v>
       </c>
       <c r="G55">
-        <v>-0.005966850039928533</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01100867663784443</v>
+      </c>
+      <c r="H55">
+        <v>-0.02177451090844069</v>
+      </c>
+      <c r="I55">
+        <v>0.01044791072513252</v>
+      </c>
+      <c r="J55">
+        <v>0.009403581358403468</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1811839060896284</v>
+        <v>0.1691528756572898</v>
       </c>
       <c r="C56">
-        <v>-0.01390621780144034</v>
+        <v>-0.01768493964703894</v>
       </c>
       <c r="D56">
-        <v>-0.07447335594471532</v>
+        <v>-0.08122349729652806</v>
       </c>
       <c r="E56">
-        <v>-0.07140863150468685</v>
+        <v>-0.03792498196184485</v>
       </c>
       <c r="F56">
-        <v>-0.07022476440794449</v>
+        <v>0.06985966423879518</v>
       </c>
       <c r="G56">
-        <v>-0.03317716859024979</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02616823442342948</v>
+      </c>
+      <c r="H56">
+        <v>0.03708380469086414</v>
+      </c>
+      <c r="I56">
+        <v>0.01567650161836994</v>
+      </c>
+      <c r="J56">
+        <v>0.0512428480743645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.08947104460645715</v>
+        <v>0.07061388668967074</v>
       </c>
       <c r="C57">
-        <v>0.02302535176185364</v>
+        <v>-0.0298437339306515</v>
       </c>
       <c r="D57">
-        <v>-0.02388176115523731</v>
+        <v>-0.01458354213752001</v>
       </c>
       <c r="E57">
-        <v>0.06141406498430461</v>
+        <v>0.01221924741651196</v>
       </c>
       <c r="F57">
-        <v>0.02229857852132565</v>
+        <v>-0.06909746823565752</v>
       </c>
       <c r="G57">
-        <v>0.03234817574061733</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.01223998487293356</v>
+      </c>
+      <c r="H57">
+        <v>-0.03671297742911094</v>
+      </c>
+      <c r="I57">
+        <v>-0.0150249558114153</v>
+      </c>
+      <c r="J57">
+        <v>0.03885739915915567</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.172306490621041</v>
+        <v>0.2031196105458899</v>
       </c>
       <c r="C58">
-        <v>-0.003296238529001707</v>
+        <v>-0.05396519617648071</v>
       </c>
       <c r="D58">
-        <v>0.03929268014542287</v>
+        <v>0.008988244007641149</v>
       </c>
       <c r="E58">
-        <v>0.1412123515982074</v>
+        <v>0.04992176092431175</v>
       </c>
       <c r="F58">
-        <v>-0.04869779709761662</v>
+        <v>-0.1931869494864494</v>
       </c>
       <c r="G58">
-        <v>0.2064670669455411</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1281272867434801</v>
+      </c>
+      <c r="H58">
+        <v>-0.2990566459884433</v>
+      </c>
+      <c r="I58">
+        <v>0.0353065157411251</v>
+      </c>
+      <c r="J58">
+        <v>-0.6642127674492594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.005356366788268318</v>
+        <v>0.03268028692876027</v>
       </c>
       <c r="C59">
-        <v>-0.2059540403696459</v>
+        <v>0.1988079357447642</v>
       </c>
       <c r="D59">
-        <v>-0.01001197700061988</v>
+        <v>-0.01998816497369886</v>
       </c>
       <c r="E59">
-        <v>0.04962332686310943</v>
+        <v>0.03871971178792472</v>
       </c>
       <c r="F59">
-        <v>0.007895813874863551</v>
+        <v>-0.06001138796710523</v>
       </c>
       <c r="G59">
-        <v>0.004831856881694047</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.001837748069026766</v>
+      </c>
+      <c r="H59">
+        <v>0.008123100840681598</v>
+      </c>
+      <c r="I59">
+        <v>0.07052267612672306</v>
+      </c>
+      <c r="J59">
+        <v>-0.03610672945129373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1878358007125074</v>
+        <v>0.1831159041215203</v>
       </c>
       <c r="C60">
-        <v>-0.1168498638965089</v>
+        <v>0.05766505655385032</v>
       </c>
       <c r="D60">
-        <v>-0.02921810934674583</v>
+        <v>-0.03639214771311963</v>
       </c>
       <c r="E60">
-        <v>0.1695986430494751</v>
+        <v>0.09004491567038032</v>
       </c>
       <c r="F60">
-        <v>0.05917680527868832</v>
+        <v>-0.1926229296681051</v>
       </c>
       <c r="G60">
-        <v>-0.1686959146802784</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.07823828011535172</v>
+      </c>
+      <c r="H60">
+        <v>0.2525147038893224</v>
+      </c>
+      <c r="I60">
+        <v>-0.0859466183562814</v>
+      </c>
+      <c r="J60">
+        <v>-0.009113622274191439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04503802653688882</v>
+        <v>0.03803921525773074</v>
       </c>
       <c r="C61">
-        <v>-0.001643398594222144</v>
+        <v>-0.01847750394144583</v>
       </c>
       <c r="D61">
-        <v>0.008149932178885063</v>
+        <v>-0.003908577126036038</v>
       </c>
       <c r="E61">
-        <v>0.04955500795390831</v>
+        <v>0.00954928274358401</v>
       </c>
       <c r="F61">
-        <v>0.02621541834018019</v>
+        <v>-0.04879100518747241</v>
       </c>
       <c r="G61">
-        <v>-0.01299621586802832</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.009752833621306457</v>
+      </c>
+      <c r="H61">
+        <v>-0.003639858710204901</v>
+      </c>
+      <c r="I61">
+        <v>-0.03864063764958036</v>
+      </c>
+      <c r="J61">
+        <v>-0.02338467816165991</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04565682607707901</v>
+        <v>0.03093654018565872</v>
       </c>
       <c r="C63">
-        <v>-0.006251067451554135</v>
+        <v>-0.01645842188608646</v>
       </c>
       <c r="D63">
-        <v>-0.01439434832397573</v>
+        <v>-0.01367698792004524</v>
       </c>
       <c r="E63">
-        <v>0.03883360421983369</v>
+        <v>0.003801698866736626</v>
       </c>
       <c r="F63">
-        <v>0.007813667610342051</v>
+        <v>-0.03329056416292772</v>
       </c>
       <c r="G63">
-        <v>0.006540382253818133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.008555415235585798</v>
+      </c>
+      <c r="H63">
+        <v>-0.04730795354596659</v>
+      </c>
+      <c r="I63">
+        <v>0.02313719802859737</v>
+      </c>
+      <c r="J63">
+        <v>0.01477535646566583</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.07662539716356941</v>
+        <v>0.05649710314764278</v>
       </c>
       <c r="C64">
-        <v>0.03863178127342406</v>
+        <v>-0.04354936579809316</v>
       </c>
       <c r="D64">
-        <v>-0.06312490326358283</v>
+        <v>-0.03220846311053716</v>
       </c>
       <c r="E64">
-        <v>0.07366885893559456</v>
+        <v>-0.03529441991969217</v>
       </c>
       <c r="F64">
-        <v>0.07827387584288657</v>
+        <v>-0.07414100373509613</v>
       </c>
       <c r="G64">
-        <v>-0.007927733208014331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.04731028732316649</v>
+      </c>
+      <c r="H64">
+        <v>-0.006818011975359738</v>
+      </c>
+      <c r="I64">
+        <v>0.004925840511731207</v>
+      </c>
+      <c r="J64">
+        <v>0.05930271744677508</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.0192057400782284</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.004504001420292108</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.0005477872944858375</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.00660335030590922</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.0007743854842224248</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01951357933174716</v>
+      </c>
+      <c r="H65">
+        <v>0.001111836143155237</v>
+      </c>
+      <c r="I65">
+        <v>-0.009936447853006018</v>
+      </c>
+      <c r="J65">
+        <v>-0.003966878332772291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09421931442642442</v>
+        <v>0.07033935505007813</v>
       </c>
       <c r="C66">
-        <v>0.01923897370785722</v>
+        <v>-0.0512426459925036</v>
       </c>
       <c r="D66">
-        <v>-0.03957948395728576</v>
+        <v>-0.04476251610463916</v>
       </c>
       <c r="E66">
-        <v>0.07655316665231945</v>
+        <v>0.01623033254542365</v>
       </c>
       <c r="F66">
-        <v>0.04308247225784532</v>
+        <v>-0.0787698060161738</v>
       </c>
       <c r="G66">
-        <v>-0.02336977538810405</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01125101177429014</v>
+      </c>
+      <c r="H66">
+        <v>-0.008209003440372998</v>
+      </c>
+      <c r="I66">
+        <v>-0.05505212273171932</v>
+      </c>
+      <c r="J66">
+        <v>0.02389569660887768</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06423719630317608</v>
+        <v>0.04358119579324716</v>
       </c>
       <c r="C67">
-        <v>-0.01859906739864619</v>
+        <v>0.00610418835866842</v>
       </c>
       <c r="D67">
-        <v>-0.01166198361996812</v>
+        <v>-0.007819074008343932</v>
       </c>
       <c r="E67">
-        <v>0.02629820683365897</v>
+        <v>0.004768008441083486</v>
       </c>
       <c r="F67">
-        <v>0.01204869529272558</v>
+        <v>-0.04197414203911114</v>
       </c>
       <c r="G67">
-        <v>0.03382847762746035</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03145280991268327</v>
+      </c>
+      <c r="H67">
+        <v>0.004761200457104531</v>
+      </c>
+      <c r="I67">
+        <v>-0.03904295749384418</v>
+      </c>
+      <c r="J67">
+        <v>-0.01232000629943995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.004076531951886475</v>
+        <v>0.03993657441325764</v>
       </c>
       <c r="C68">
-        <v>-0.2469685482583902</v>
+        <v>0.2346596617423241</v>
       </c>
       <c r="D68">
-        <v>0.004474520371703971</v>
+        <v>-0.01249128877157232</v>
       </c>
       <c r="E68">
-        <v>0.02985633031662768</v>
+        <v>0.03795046984451929</v>
       </c>
       <c r="F68">
-        <v>-0.001271320419206557</v>
+        <v>-0.03840255918843042</v>
       </c>
       <c r="G68">
-        <v>0.01655073346960161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.006225055775667572</v>
+      </c>
+      <c r="H68">
+        <v>0.005222990602027923</v>
+      </c>
+      <c r="I68">
+        <v>0.1780432069946801</v>
+      </c>
+      <c r="J68">
+        <v>-0.02766004221760052</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06925308041403196</v>
+        <v>0.07191246045774023</v>
       </c>
       <c r="C69">
-        <v>0.01093371679748091</v>
+        <v>-0.01992178537857025</v>
       </c>
       <c r="D69">
-        <v>-0.02127435761517376</v>
+        <v>-0.03135333231087441</v>
       </c>
       <c r="E69">
-        <v>-0.01201198569867642</v>
+        <v>0.00289643481812547</v>
       </c>
       <c r="F69">
-        <v>-0.0008020932477431873</v>
+        <v>-0.005634431622664869</v>
       </c>
       <c r="G69">
-        <v>-0.00161677687191329</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02488522653605217</v>
+      </c>
+      <c r="H69">
+        <v>-0.0395208452919903</v>
+      </c>
+      <c r="I69">
+        <v>-0.006439199258615962</v>
+      </c>
+      <c r="J69">
+        <v>-0.01336371277228138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.005440342305693481</v>
+        <v>0.04288466652060135</v>
       </c>
       <c r="C71">
-        <v>-0.2685597253069995</v>
+        <v>0.2514484921616492</v>
       </c>
       <c r="D71">
-        <v>0.003385343043105895</v>
+        <v>0.005150979865370474</v>
       </c>
       <c r="E71">
-        <v>0.06129312927845455</v>
+        <v>0.06245725209257445</v>
       </c>
       <c r="F71">
-        <v>0.0185099618242603</v>
+        <v>-0.05818690365080416</v>
       </c>
       <c r="G71">
-        <v>-0.06078868214865809</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01632873253666299</v>
+      </c>
+      <c r="H71">
+        <v>0.02092655986012367</v>
+      </c>
+      <c r="I71">
+        <v>0.1464965058816502</v>
+      </c>
+      <c r="J71">
+        <v>-0.03636265324815736</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1163610668255658</v>
+        <v>0.1207515042048239</v>
       </c>
       <c r="C72">
-        <v>-0.01310205112385753</v>
+        <v>-0.01082582510357058</v>
       </c>
       <c r="D72">
-        <v>-0.049563446296986</v>
+        <v>-0.05499625219548399</v>
       </c>
       <c r="E72">
-        <v>0.09313226847367961</v>
+        <v>-0.0002206966549955484</v>
       </c>
       <c r="F72">
-        <v>0.005318979143884882</v>
+        <v>-0.08718153346497154</v>
       </c>
       <c r="G72">
-        <v>0.07264152764398245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04957366304396672</v>
+      </c>
+      <c r="H72">
+        <v>-0.009427027057059334</v>
+      </c>
+      <c r="I72">
+        <v>-0.04212384215792368</v>
+      </c>
+      <c r="J72">
+        <v>-0.1465229864610874</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.275700052579993</v>
+        <v>0.2668346720656101</v>
       </c>
       <c r="C73">
-        <v>-0.1945162837736984</v>
+        <v>0.1108223950232421</v>
       </c>
       <c r="D73">
-        <v>0.01527995785408539</v>
+        <v>-0.009854678396983447</v>
       </c>
       <c r="E73">
-        <v>0.3099451235529848</v>
+        <v>0.1683770368398722</v>
       </c>
       <c r="F73">
-        <v>0.08708311927282861</v>
+        <v>-0.2930500480584005</v>
       </c>
       <c r="G73">
-        <v>-0.374590007369562</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1550717409139574</v>
+      </c>
+      <c r="H73">
+        <v>0.4667487283697411</v>
+      </c>
+      <c r="I73">
+        <v>-0.3060006673617719</v>
+      </c>
+      <c r="J73">
+        <v>-0.04010600768245701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1620353612188995</v>
+        <v>0.153558292095284</v>
       </c>
       <c r="C74">
-        <v>-0.004601665212011237</v>
+        <v>-0.0231190705241344</v>
       </c>
       <c r="D74">
-        <v>-0.04102197072737582</v>
+        <v>-0.04748371732661611</v>
       </c>
       <c r="E74">
-        <v>-0.01244937959732722</v>
+        <v>-0.01127143766509158</v>
       </c>
       <c r="F74">
-        <v>-0.05331057473645786</v>
+        <v>0.04282898248008649</v>
       </c>
       <c r="G74">
-        <v>-0.06636861465953552</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01831013291023524</v>
+      </c>
+      <c r="H74">
+        <v>0.02257244673944283</v>
+      </c>
+      <c r="I74">
+        <v>0.0001542516357092355</v>
+      </c>
+      <c r="J74">
+        <v>0.07461206775780385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2377580134278802</v>
+        <v>0.2421417096338068</v>
       </c>
       <c r="C75">
-        <v>-0.008754380203334957</v>
+        <v>-0.02604654105404671</v>
       </c>
       <c r="D75">
-        <v>-0.05547537912129354</v>
+        <v>-0.09967918002697677</v>
       </c>
       <c r="E75">
-        <v>-0.126245760923112</v>
+        <v>-0.02275926083754761</v>
       </c>
       <c r="F75">
-        <v>-0.06539767456001649</v>
+        <v>0.1345856018213836</v>
       </c>
       <c r="G75">
-        <v>-0.02577254018432643</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.00499486358480492</v>
+      </c>
+      <c r="H75">
+        <v>0.01811051498881354</v>
+      </c>
+      <c r="I75">
+        <v>0.08385685161096683</v>
+      </c>
+      <c r="J75">
+        <v>0.09885235241611819</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2481285444538222</v>
+        <v>0.2692482162806097</v>
       </c>
       <c r="C76">
-        <v>-0.01173334174659836</v>
+        <v>-0.02110640393138793</v>
       </c>
       <c r="D76">
-        <v>-0.09885149476496628</v>
+        <v>-0.123086836035823</v>
       </c>
       <c r="E76">
-        <v>-0.1136695697006745</v>
+        <v>-0.06753525956985076</v>
       </c>
       <c r="F76">
-        <v>-0.08641085948657451</v>
+        <v>0.1586924266394697</v>
       </c>
       <c r="G76">
-        <v>-0.05645243083200177</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04930076631859236</v>
+      </c>
+      <c r="H76">
+        <v>0.03953091409768739</v>
+      </c>
+      <c r="I76">
+        <v>0.004778463252601378</v>
+      </c>
+      <c r="J76">
+        <v>0.105086595576398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1260907219233316</v>
+        <v>0.1309425046045662</v>
       </c>
       <c r="C77">
-        <v>0.01765570790315291</v>
+        <v>-0.05478460491657319</v>
       </c>
       <c r="D77">
-        <v>0.04513357880809027</v>
+        <v>0.04170894851323517</v>
       </c>
       <c r="E77">
-        <v>0.1655367526429734</v>
+        <v>0.03146165185233412</v>
       </c>
       <c r="F77">
-        <v>0.01943544570988092</v>
+        <v>-0.16730167477166</v>
       </c>
       <c r="G77">
-        <v>0.1759217753202493</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01263133257669207</v>
+      </c>
+      <c r="H77">
+        <v>-0.2135753631371758</v>
+      </c>
+      <c r="I77">
+        <v>0.1542946448012598</v>
+      </c>
+      <c r="J77">
+        <v>0.132507733427276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08890325859641995</v>
+        <v>0.08754023831483272</v>
       </c>
       <c r="C78">
-        <v>0.03092530619526484</v>
+        <v>-0.05693564523231907</v>
       </c>
       <c r="D78">
-        <v>0.01631719072862036</v>
+        <v>0.004230998712531671</v>
       </c>
       <c r="E78">
-        <v>0.06909131110199283</v>
+        <v>-0.007244957619921126</v>
       </c>
       <c r="F78">
-        <v>0.01767933397642847</v>
+        <v>-0.08933668119436688</v>
       </c>
       <c r="G78">
-        <v>0.01328781814780896</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.001402106291737644</v>
+      </c>
+      <c r="H78">
+        <v>-0.03703110615864076</v>
+      </c>
+      <c r="I78">
+        <v>0.01729710676220553</v>
+      </c>
+      <c r="J78">
+        <v>0.006720028786219014</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.06452904628676884</v>
+        <v>0.1175826790728752</v>
       </c>
       <c r="C80">
-        <v>0.005488280214822137</v>
+        <v>0.1710201959291985</v>
       </c>
       <c r="D80">
-        <v>0.01286782416931752</v>
+        <v>0.3139319993021265</v>
       </c>
       <c r="E80">
-        <v>0.0373620293543626</v>
+        <v>-0.8980827026791365</v>
       </c>
       <c r="F80">
-        <v>-0.04898068635601607</v>
+        <v>-0.1405976898434813</v>
       </c>
       <c r="G80">
-        <v>0.5703725148958874</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.0146364922629496</v>
+      </c>
+      <c r="H80">
+        <v>0.1081366504469563</v>
+      </c>
+      <c r="I80">
+        <v>-0.03587116372071035</v>
+      </c>
+      <c r="J80">
+        <v>-0.0577881775948903</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1660420908566302</v>
+        <v>0.1794006729139386</v>
       </c>
       <c r="C81">
-        <v>-0.005963512117462096</v>
+        <v>-0.009552494464681668</v>
       </c>
       <c r="D81">
-        <v>-0.04284708171164341</v>
+        <v>-0.0829114339757115</v>
       </c>
       <c r="E81">
-        <v>-0.1276186202552595</v>
+        <v>-0.03421107379459049</v>
       </c>
       <c r="F81">
-        <v>-0.1033447874540348</v>
+        <v>0.1449380648485444</v>
       </c>
       <c r="G81">
-        <v>-0.03412079064422371</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02759474474458936</v>
+      </c>
+      <c r="H81">
+        <v>0.01012199505911096</v>
+      </c>
+      <c r="I81">
+        <v>0.03929335162157906</v>
+      </c>
+      <c r="J81">
+        <v>0.04618272596014804</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.08661808781546668</v>
+        <v>0.06700433457115158</v>
       </c>
       <c r="C83">
-        <v>0.04370953714999549</v>
+        <v>-0.04368946997344114</v>
       </c>
       <c r="D83">
-        <v>0.09068474489990287</v>
+        <v>0.03810272104688555</v>
       </c>
       <c r="E83">
-        <v>0.035487126178976</v>
+        <v>0.03137858806003913</v>
       </c>
       <c r="F83">
-        <v>0.05654498816929465</v>
+        <v>-0.05365090353900976</v>
       </c>
       <c r="G83">
-        <v>0.01164365730630433</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04692365507261975</v>
+      </c>
+      <c r="H83">
+        <v>-0.03233769429578828</v>
+      </c>
+      <c r="I83">
+        <v>0.008907280532885264</v>
+      </c>
+      <c r="J83">
+        <v>0.07524585167489657</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2373611730969161</v>
+        <v>0.2557315202903643</v>
       </c>
       <c r="C85">
-        <v>0.05278357554470707</v>
+        <v>-0.05583772343926705</v>
       </c>
       <c r="D85">
-        <v>-0.05155858468723694</v>
+        <v>-0.07962643101057607</v>
       </c>
       <c r="E85">
-        <v>-0.1407812605990462</v>
+        <v>-0.06262177179358701</v>
       </c>
       <c r="F85">
-        <v>-0.06966291540549871</v>
+        <v>0.1582855735548659</v>
       </c>
       <c r="G85">
-        <v>0.01489657163546847</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.005369909438410846</v>
+      </c>
+      <c r="H85">
+        <v>-0.01716961946395571</v>
+      </c>
+      <c r="I85">
+        <v>0.03631525076523201</v>
+      </c>
+      <c r="J85">
+        <v>0.1158551047822115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04496648609301689</v>
+        <v>0.03019166827259959</v>
       </c>
       <c r="C86">
-        <v>0.04055452483822262</v>
+        <v>-0.04785033434947127</v>
       </c>
       <c r="D86">
-        <v>-0.01355255937693126</v>
+        <v>-0.005153903950931086</v>
       </c>
       <c r="E86">
-        <v>0.06235550039371086</v>
+        <v>-0.01060280042051522</v>
       </c>
       <c r="F86">
-        <v>-0.005382970689914003</v>
+        <v>-0.07483642120787747</v>
       </c>
       <c r="G86">
-        <v>0.05210412796283694</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.001034395348904694</v>
+      </c>
+      <c r="H86">
+        <v>-0.07358947920692742</v>
+      </c>
+      <c r="I86">
+        <v>0.02880566017937479</v>
+      </c>
+      <c r="J86">
+        <v>0.01273370132368565</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02398138145634733</v>
+        <v>0.03685020013673872</v>
       </c>
       <c r="C87">
-        <v>-0.05672380540951989</v>
+        <v>0.02188840264428325</v>
       </c>
       <c r="D87">
-        <v>-0.01708809519485973</v>
+        <v>-0.006833780573041734</v>
       </c>
       <c r="E87">
-        <v>0.0603458188580903</v>
+        <v>0.02078654101369896</v>
       </c>
       <c r="F87">
-        <v>0.05968523368563679</v>
+        <v>-0.09755272728506037</v>
       </c>
       <c r="G87">
-        <v>-0.1075698014276702</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02585611161407879</v>
+      </c>
+      <c r="H87">
+        <v>0.005394236328138627</v>
+      </c>
+      <c r="I87">
+        <v>-0.02657664081816976</v>
+      </c>
+      <c r="J87">
+        <v>-0.06283894983601589</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03942754034618325</v>
+        <v>0.02721421888237568</v>
       </c>
       <c r="C88">
-        <v>0.02829002665533742</v>
+        <v>-0.01804285862448137</v>
       </c>
       <c r="D88">
-        <v>-0.00636743506224477</v>
+        <v>-0.01109156280338363</v>
       </c>
       <c r="E88">
-        <v>-0.004535917802720812</v>
+        <v>-0.0221078089889648</v>
       </c>
       <c r="F88">
-        <v>-0.007035586986452682</v>
+        <v>0.0004303700976168512</v>
       </c>
       <c r="G88">
-        <v>0.02642967424550049</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03136812228890176</v>
+      </c>
+      <c r="H88">
+        <v>-0.03932906175635959</v>
+      </c>
+      <c r="I88">
+        <v>-0.03170710821940773</v>
+      </c>
+      <c r="J88">
+        <v>-0.00983147827280495</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.01659471977526129</v>
+        <v>0.05153495919578794</v>
       </c>
       <c r="C89">
-        <v>-0.419280919034184</v>
+        <v>0.3871904398328003</v>
       </c>
       <c r="D89">
-        <v>0.09508531429077482</v>
+        <v>0.0205009369267146</v>
       </c>
       <c r="E89">
-        <v>-0.02582884532947632</v>
+        <v>0.1003044715634851</v>
       </c>
       <c r="F89">
-        <v>-0.004568482184269517</v>
+        <v>-0.006933065434290802</v>
       </c>
       <c r="G89">
-        <v>0.08295863497569916</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.05225176154133786</v>
+      </c>
+      <c r="H89">
+        <v>-0.05191550002176954</v>
+      </c>
+      <c r="I89">
+        <v>0.2771865588289013</v>
+      </c>
+      <c r="J89">
+        <v>0.0003269399028061535</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.0104842968181122</v>
+        <v>0.03786399849916321</v>
       </c>
       <c r="C90">
-        <v>-0.3153850288234603</v>
+        <v>0.33343908440832</v>
       </c>
       <c r="D90">
-        <v>0.02931952826416336</v>
+        <v>0.01218871434925882</v>
       </c>
       <c r="E90">
-        <v>0.02557962083046249</v>
+        <v>0.04637195516619153</v>
       </c>
       <c r="F90">
-        <v>0.009735128733823562</v>
+        <v>-0.02931961004574933</v>
       </c>
       <c r="G90">
-        <v>-0.03213118364726671</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02227504351893695</v>
+      </c>
+      <c r="H90">
+        <v>0.0009215535601604144</v>
+      </c>
+      <c r="I90">
+        <v>0.2209134232341761</v>
+      </c>
+      <c r="J90">
+        <v>-0.0222281198163356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3021691052507291</v>
+        <v>0.3133987665749421</v>
       </c>
       <c r="C91">
-        <v>0.02523963006901755</v>
+        <v>-0.04401596707765936</v>
       </c>
       <c r="D91">
-        <v>-0.04676932925678996</v>
+        <v>-0.09474116350283322</v>
       </c>
       <c r="E91">
-        <v>-0.2648644156834468</v>
+        <v>-0.05515378630814106</v>
       </c>
       <c r="F91">
-        <v>-0.1705213331242978</v>
+        <v>0.2847009374257307</v>
       </c>
       <c r="G91">
-        <v>0.06174430412663202</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.04311406807300826</v>
+      </c>
+      <c r="H91">
+        <v>0.01754537650318448</v>
+      </c>
+      <c r="I91">
+        <v>0.101841635859563</v>
+      </c>
+      <c r="J91">
+        <v>0.2285211950623843</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.006893613404899637</v>
+        <v>0.08825655269323819</v>
       </c>
       <c r="C92">
-        <v>-0.4231980885554485</v>
+        <v>0.4414510987546229</v>
       </c>
       <c r="D92">
-        <v>0.203329537074128</v>
+        <v>0.04119703787744163</v>
       </c>
       <c r="E92">
-        <v>-0.1153842799529864</v>
+        <v>0.04974921747814179</v>
       </c>
       <c r="F92">
-        <v>-0.07354594513791454</v>
+        <v>0.140968423690568</v>
       </c>
       <c r="G92">
-        <v>0.3051177235319242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.09796872600630056</v>
+      </c>
+      <c r="H92">
+        <v>-0.4535710524881078</v>
+      </c>
+      <c r="I92">
+        <v>-0.7183648438107373</v>
+      </c>
+      <c r="J92">
+        <v>0.1376714784361746</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.02005420200417939</v>
+        <v>0.03884623935157625</v>
       </c>
       <c r="C93">
-        <v>-0.3712724156092572</v>
+        <v>0.4039211206175917</v>
       </c>
       <c r="D93">
-        <v>0.07340069548209412</v>
+        <v>0.03108373960563708</v>
       </c>
       <c r="E93">
-        <v>-0.04110731556058723</v>
+        <v>0.08186302013719068</v>
       </c>
       <c r="F93">
-        <v>-0.02226681795156835</v>
+        <v>0.02805802862283789</v>
       </c>
       <c r="G93">
-        <v>0.0678661737079783</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03630395705482244</v>
+      </c>
+      <c r="H93">
+        <v>0.01143433443387532</v>
+      </c>
+      <c r="I93">
+        <v>0.1953790974982109</v>
+      </c>
+      <c r="J93">
+        <v>0.008550686795287197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2940584135111259</v>
+        <v>0.3173538400447226</v>
       </c>
       <c r="C94">
-        <v>-0.03576518278534867</v>
+        <v>-0.001804926961579296</v>
       </c>
       <c r="D94">
-        <v>0.00542395386544193</v>
+        <v>-0.1446076524685544</v>
       </c>
       <c r="E94">
-        <v>-0.3617811661479666</v>
+        <v>-0.02768255281012849</v>
       </c>
       <c r="F94">
-        <v>-0.4218193306639491</v>
+        <v>0.3653744535252714</v>
       </c>
       <c r="G94">
-        <v>-0.01173149006277016</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1589780087370642</v>
+      </c>
+      <c r="H94">
+        <v>-0.1254499229092587</v>
+      </c>
+      <c r="I94">
+        <v>0.05185297095855747</v>
+      </c>
+      <c r="J94">
+        <v>-0.3171041020347027</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1971461618284688</v>
+        <v>0.1351581670442617</v>
       </c>
       <c r="C95">
-        <v>-0.02299219119153965</v>
+        <v>-0.06401816350023418</v>
       </c>
       <c r="D95">
-        <v>0.01421128127989771</v>
+        <v>-0.04613071029417758</v>
       </c>
       <c r="E95">
-        <v>-0.4592473242824265</v>
+        <v>0.03446893914978061</v>
       </c>
       <c r="F95">
-        <v>0.8205914529604275</v>
+        <v>0.04757829934601459</v>
       </c>
       <c r="G95">
-        <v>0.08601623660525239</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9264925585196694</v>
+      </c>
+      <c r="H95">
+        <v>0.1707497919589354</v>
+      </c>
+      <c r="I95">
+        <v>-0.02490701972782647</v>
+      </c>
+      <c r="J95">
+        <v>-0.1744802344030302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2177890329988264</v>
+        <v>0.2036776035706063</v>
       </c>
       <c r="C98">
-        <v>-0.1369138865397682</v>
+        <v>0.07755255722247399</v>
       </c>
       <c r="D98">
-        <v>0.03145020204007472</v>
+        <v>-0.00361944034111709</v>
       </c>
       <c r="E98">
-        <v>0.1035049739828167</v>
+        <v>0.1273128531768588</v>
       </c>
       <c r="F98">
-        <v>0.04576396853657422</v>
+        <v>-0.140010897120955</v>
       </c>
       <c r="G98">
-        <v>-0.2780225425825927</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07915834362991535</v>
+      </c>
+      <c r="H98">
+        <v>0.3355162339786247</v>
+      </c>
+      <c r="I98">
+        <v>-0.148019365339065</v>
+      </c>
+      <c r="J98">
+        <v>0.02563011924706384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.0219298796048766</v>
+        <v>0.01601075543994711</v>
       </c>
       <c r="C101">
-        <v>0.01549873469890763</v>
+        <v>-0.02969215304964257</v>
       </c>
       <c r="D101">
-        <v>-0.02407393874360947</v>
+        <v>-0.02542870443014818</v>
       </c>
       <c r="E101">
-        <v>0.02787988156791341</v>
+        <v>-0.01316061710604137</v>
       </c>
       <c r="F101">
-        <v>0.00992679460371961</v>
+        <v>-0.06883942703439509</v>
       </c>
       <c r="G101">
-        <v>0.01880637015433698</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.006449879022446699</v>
+      </c>
+      <c r="H101">
+        <v>-0.1078850471438655</v>
+      </c>
+      <c r="I101">
+        <v>-0.01628738057895225</v>
+      </c>
+      <c r="J101">
+        <v>-0.2008936926485688</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.118764666590961</v>
+        <v>0.1210826517378043</v>
       </c>
       <c r="C102">
-        <v>0.01286464043257813</v>
+        <v>-0.02683256050699176</v>
       </c>
       <c r="D102">
-        <v>-0.03602300467777044</v>
+        <v>-0.04945164905605249</v>
       </c>
       <c r="E102">
-        <v>-0.08890362804293173</v>
+        <v>-0.03771637385037348</v>
       </c>
       <c r="F102">
-        <v>-0.006105707031767607</v>
+        <v>0.08576141105739385</v>
       </c>
       <c r="G102">
-        <v>-0.0003406594003677768</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.0271791630846724</v>
+      </c>
+      <c r="H102">
+        <v>0.01746864810025716</v>
+      </c>
+      <c r="I102">
+        <v>0.04421704995366214</v>
+      </c>
+      <c r="J102">
+        <v>0.04532332970726647</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.0175241679868959</v>
+        <v>0.03029647450420307</v>
       </c>
       <c r="C103">
-        <v>0.001625261697408705</v>
+        <v>-0.00592833311949537</v>
       </c>
       <c r="D103">
-        <v>-0.0114197743521649</v>
+        <v>-0.01680379106566809</v>
       </c>
       <c r="E103">
-        <v>-0.02258336744478558</v>
+        <v>-0.02177682779064204</v>
       </c>
       <c r="F103">
-        <v>-0.009064854955061721</v>
+        <v>0.01538476337623476</v>
       </c>
       <c r="G103">
-        <v>-0.01003807383125746</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01520718141389625</v>
+      </c>
+      <c r="H103">
+        <v>-0.0160265922843758</v>
+      </c>
+      <c r="I103">
+        <v>0.02523885451575613</v>
+      </c>
+      <c r="J103">
+        <v>0.009742947532345506</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
